--- a/data/norm.cause-of-death-2002.xlsx
+++ b/data/norm.cause-of-death-2002.xlsx
@@ -673,7 +673,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Blood / Immune</t>
+          <t>Blood</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -741,7 +741,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Metabolic / Nutritional</t>
+          <t>Metabolic</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pregnancy / Childbirth</t>
+          <t>Pregnancy</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Blood / Immune</t>
+          <t>Blood</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Metabolic / Nutritional</t>
+          <t>Metabolic</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3017,7 +3017,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pregnancy / Childbirth</t>
+          <t>Pregnancy</t>
         </is>
       </c>
       <c r="D16" t="n">
